--- a/outcome/appendix/Table S2.xlsx
+++ b/outcome/appendix/Table S2.xlsx
@@ -44,16 +44,16 @@
     <t xml:space="preserve">AHC</t>
   </si>
   <si>
-    <t xml:space="preserve">Epidemic Periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHSMs Periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post-epidemic Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-epidemic Periods</t>
+    <t xml:space="preserve">Epidemic period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHSMs period I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHSMs period II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-epidemic period</t>
   </si>
   <si>
     <t xml:space="preserve">Dysentery</t>
@@ -500,13 +500,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.589719047669304</v>
+        <v>0.589928240686068</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510236805398085</v>
+        <v>0.510396023988672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.725826096119774</v>
+        <v>0.725916194479634</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -526,19 +526,19 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52746091563356</v>
+        <v>1.02638125978291</v>
       </c>
       <c r="E3" t="n">
-        <v>0.341599380928958</v>
+        <v>0.846606277085342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.767421837836536</v>
+        <v>1.06285528583354</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -552,19 +552,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.29748432836474</v>
+        <v>0.527561885098983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.865239995245256</v>
+        <v>0.341698954249096</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8285836071214</v>
+        <v>0.767487546065246</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -578,19 +578,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.02639745455438</v>
+        <v>1.29740621502402</v>
       </c>
       <c r="E5" t="n">
-        <v>0.846559145600326</v>
+        <v>0.865263381305701</v>
       </c>
       <c r="F5" t="n">
-        <v>1.06288890932845</v>
+        <v>1.82847076331829</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="6">
@@ -604,13 +604,13 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.743276197639259</v>
+        <v>0.743375336414815</v>
       </c>
       <c r="E6" t="n">
-        <v>0.540186445017289</v>
+        <v>0.540312175210651</v>
       </c>
       <c r="F6" t="n">
-        <v>0.822383902357307</v>
+        <v>0.822441618228807</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.782234080414196</v>
+        <v>0.735759989051497</v>
       </c>
       <c r="E7" t="n">
-        <v>0.682533347258855</v>
+        <v>0.672465487853854</v>
       </c>
       <c r="F7" t="n">
-        <v>0.845133724913814</v>
+        <v>0.872317335483126</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.655253317506543</v>
+        <v>0.78228017185386</v>
       </c>
       <c r="E8" t="n">
-        <v>0.615378777323168</v>
+        <v>0.682585297116066</v>
       </c>
       <c r="F8" t="n">
-        <v>0.694129097987696</v>
+        <v>0.845155504180572</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,19 +682,19 @@
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.735692769319333</v>
+        <v>0.655301538004144</v>
       </c>
       <c r="E9" t="n">
-        <v>0.672369630853959</v>
+        <v>0.615443470578195</v>
       </c>
       <c r="F9" t="n">
-        <v>0.872285078513071</v>
+        <v>0.694177864365631</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="10">
@@ -708,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.407067333798212</v>
+        <v>0.407774300767108</v>
       </c>
       <c r="E10" t="n">
-        <v>0.403028782035059</v>
+        <v>0.404055204706031</v>
       </c>
       <c r="F10" t="n">
-        <v>0.624487095165354</v>
+        <v>0.625005191224722</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>0.770389048656069</v>
+        <v>0.600229594145393</v>
       </c>
       <c r="E11" t="n">
-        <v>0.652804022677913</v>
+        <v>0.593142034123755</v>
       </c>
       <c r="F11" t="n">
-        <v>0.841217981155123</v>
+        <v>0.651041949739924</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>0.688239529563703</v>
+        <v>0.770627518356368</v>
       </c>
       <c r="E12" t="n">
-        <v>0.622931670039118</v>
+        <v>0.653220034734981</v>
       </c>
       <c r="F12" t="n">
-        <v>0.708886050259568</v>
+        <v>0.84148222922519</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
         <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>0.599571102982816</v>
+        <v>0.688599124181621</v>
       </c>
       <c r="E13" t="n">
-        <v>0.592476238541421</v>
+        <v>0.623420385389601</v>
       </c>
       <c r="F13" t="n">
-        <v>0.650508870537598</v>
+        <v>0.709262831836904</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.251786306213485</v>
+        <v>0.251805866491463</v>
       </c>
       <c r="E14" t="n">
-        <v>0.244548273976792</v>
+        <v>0.244595220084818</v>
       </c>
       <c r="F14" t="n">
-        <v>0.338928938116556</v>
+        <v>0.338937012985054</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -838,19 +838,19 @@
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>0.679576519205434</v>
+        <v>0.189481289168052</v>
       </c>
       <c r="E15" t="n">
-        <v>0.351817586487307</v>
+        <v>0.127117792023711</v>
       </c>
       <c r="F15" t="n">
-        <v>0.941746216872377</v>
+        <v>0.507498508753304</v>
       </c>
       <c r="G15" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
@@ -864,19 +864,19 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>1.08147307140133</v>
+        <v>0.679577489465629</v>
       </c>
       <c r="E16" t="n">
-        <v>0.589799969274351</v>
+        <v>0.351822221682676</v>
       </c>
       <c r="F16" t="n">
-        <v>1.30193448134283</v>
+        <v>0.94174778588022</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8203</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="17">
@@ -890,19 +890,19 @@
         <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1894342343132</v>
+        <v>1.08147254373118</v>
       </c>
       <c r="E17" t="n">
-        <v>0.127083713630672</v>
+        <v>0.589805211590139</v>
       </c>
       <c r="F17" t="n">
-        <v>0.507472441410091</v>
+        <v>1.30193245023644</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H17" t="n">
-        <v>0.25</v>
+        <v>0.8203</v>
       </c>
     </row>
     <row r="18">
@@ -916,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.676683372578775</v>
+        <v>0.676975209034019</v>
       </c>
       <c r="E18" t="n">
-        <v>0.65147631597867</v>
+        <v>0.651909915301821</v>
       </c>
       <c r="F18" t="n">
-        <v>1.07536753600294</v>
+        <v>1.07530471192032</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
@@ -942,19 +942,19 @@
         <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>0.825361442442907</v>
+        <v>1.0475163172174</v>
       </c>
       <c r="E19" t="n">
-        <v>0.752270961393225</v>
+        <v>1.00210342318436</v>
       </c>
       <c r="F19" t="n">
-        <v>0.883930286472205</v>
+        <v>1.24214999536895</v>
       </c>
       <c r="G19" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -968,19 +968,19 @@
         <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>0.975639900924261</v>
+        <v>0.825493702102914</v>
       </c>
       <c r="E20" t="n">
-        <v>0.810470100381498</v>
+        <v>0.752438662259619</v>
       </c>
       <c r="F20" t="n">
-        <v>0.99359542080209</v>
+        <v>0.884021318195497</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -994,19 +994,19 @@
         <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>1.04755610619282</v>
+        <v>0.975661968911473</v>
       </c>
       <c r="E21" t="n">
-        <v>1.00210976875546</v>
+        <v>0.810608260905166</v>
       </c>
       <c r="F21" t="n">
-        <v>1.24241227417713</v>
+        <v>0.993601868220384</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5</v>
+        <v>0.0977</v>
       </c>
     </row>
     <row r="22">
@@ -1020,13 +1020,13 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.854876906554454</v>
+        <v>0.854948500767476</v>
       </c>
       <c r="E22" t="n">
-        <v>0.587128723739987</v>
+        <v>0.587332842309173</v>
       </c>
       <c r="F22" t="n">
-        <v>0.995135701682241</v>
+        <v>0.995137894004516</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1046,19 +1046,19 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.92349175604228</v>
+        <v>0.517489173370276</v>
       </c>
       <c r="E23" t="n">
-        <v>0.819819209830104</v>
+        <v>0.477496949098622</v>
       </c>
       <c r="F23" t="n">
-        <v>0.979705121207636</v>
+        <v>0.600403857818468</v>
       </c>
       <c r="G23" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
@@ -1072,19 +1072,19 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>1.11152184414893</v>
+        <v>0.923525242911752</v>
       </c>
       <c r="E24" t="n">
-        <v>1.06910681423163</v>
+        <v>0.819913370694824</v>
       </c>
       <c r="F24" t="n">
-        <v>1.29589310330381</v>
+        <v>0.979714012731008</v>
       </c>
       <c r="G24" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0039</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="25">
@@ -1098,19 +1098,19 @@
         <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>0.517337058360114</v>
+        <v>1.11147451551674</v>
       </c>
       <c r="E25" t="n">
-        <v>0.477303206451957</v>
+        <v>1.06907862628122</v>
       </c>
       <c r="F25" t="n">
-        <v>0.600261271354258</v>
+        <v>1.29574945275054</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H25" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="26">
@@ -1124,13 +1124,13 @@
         <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0.457951208239834</v>
+        <v>0.457956078161927</v>
       </c>
       <c r="E26" t="n">
-        <v>0.271666839337612</v>
+        <v>0.271671446152891</v>
       </c>
       <c r="F26" t="n">
-        <v>0.686376756309886</v>
+        <v>0.68637899182447</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.797230848692506</v>
+        <v>0.428551314459758</v>
       </c>
       <c r="E27" t="n">
-        <v>0.696339364648383</v>
+        <v>0.398859906104172</v>
       </c>
       <c r="F27" t="n">
-        <v>0.919403376512308</v>
+        <v>0.654929224631671</v>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28">
@@ -1176,19 +1176,19 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>0.805950613564087</v>
+        <v>0.797232889858667</v>
       </c>
       <c r="E28" t="n">
-        <v>0.782121852356031</v>
+        <v>0.696341442461983</v>
       </c>
       <c r="F28" t="n">
-        <v>0.829232025866633</v>
+        <v>0.919404088124248</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1202,19 +1202,19 @@
         <v>13</v>
       </c>
       <c r="D29" t="n">
-        <v>0.428546264198898</v>
+        <v>0.805952055745711</v>
       </c>
       <c r="E29" t="n">
-        <v>0.398854822416392</v>
+        <v>0.782123279842054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.654926268933268</v>
+        <v>0.829233155825667</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.25</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="30">
@@ -1228,13 +1228,13 @@
         <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>0.555190496361346</v>
+        <v>0.555237405169436</v>
       </c>
       <c r="E30" t="n">
-        <v>0.485848977641708</v>
+        <v>0.485907077553497</v>
       </c>
       <c r="F30" t="n">
-        <v>0.699736833066098</v>
+        <v>0.699773147635999</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.743588834014493</v>
+        <v>0.72407122432059</v>
       </c>
       <c r="E31" t="n">
-        <v>0.662050383883686</v>
+        <v>0.646791108590875</v>
       </c>
       <c r="F31" t="n">
-        <v>0.819509593128324</v>
+        <v>0.739855502050039</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32">
@@ -1280,19 +1280,19 @@
         <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>0.601519035727367</v>
+        <v>0.743630768307953</v>
       </c>
       <c r="E32" t="n">
-        <v>0.587341262962612</v>
+        <v>0.662096416475144</v>
       </c>
       <c r="F32" t="n">
-        <v>0.64374172505729</v>
+        <v>0.819537376322857</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1306,19 +1306,19 @@
         <v>13</v>
       </c>
       <c r="D33" t="n">
-        <v>0.723998816887774</v>
+        <v>0.601565827164197</v>
       </c>
       <c r="E33" t="n">
-        <v>0.646697446189234</v>
+        <v>0.58738858647535</v>
       </c>
       <c r="F33" t="n">
-        <v>0.739800097114936</v>
+        <v>0.643788171971744</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="34">
@@ -1332,13 +1332,13 @@
         <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>0.731639175895343</v>
+        <v>0.731664906493859</v>
       </c>
       <c r="E34" t="n">
-        <v>0.57039607309775</v>
+        <v>0.570436727022431</v>
       </c>
       <c r="F34" t="n">
-        <v>0.887445350524573</v>
+        <v>0.887457789814792</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1358,19 +1358,19 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>1.02614343539754</v>
+        <v>0.504221344047275</v>
       </c>
       <c r="E35" t="n">
-        <v>0.875172000206547</v>
+        <v>0.491875509933502</v>
       </c>
       <c r="F35" t="n">
-        <v>1.07963097374712</v>
+        <v>0.688974860617332</v>
       </c>
       <c r="G35" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7793</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36">
@@ -1384,19 +1384,19 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.935808642437522</v>
+        <v>1.02614089305029</v>
       </c>
       <c r="E36" t="n">
-        <v>0.897398265061898</v>
+        <v>0.875183884091728</v>
       </c>
       <c r="F36" t="n">
-        <v>0.973393555354388</v>
+        <v>1.07962335877613</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0195</v>
+        <v>0.7793</v>
       </c>
     </row>
     <row r="37">
@@ -1410,19 +1410,19 @@
         <v>13</v>
       </c>
       <c r="D37" t="n">
-        <v>0.504167717015926</v>
+        <v>0.935814587139034</v>
       </c>
       <c r="E37" t="n">
-        <v>0.491813290045822</v>
+        <v>0.897408044735009</v>
       </c>
       <c r="F37" t="n">
-        <v>0.688941363953347</v>
+        <v>0.973396107444421</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="38">
@@ -1436,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>0.780471485903805</v>
+        <v>0.780473469604322</v>
       </c>
       <c r="E38" t="n">
-        <v>0.672092915346978</v>
+        <v>0.672095862024984</v>
       </c>
       <c r="F38" t="n">
-        <v>0.998517659798195</v>
+        <v>0.998517671459015</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -1462,19 +1462,19 @@
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>0.950282266551039</v>
+        <v>0.741232284016095</v>
       </c>
       <c r="E39" t="n">
-        <v>0.918451464157773</v>
+        <v>0.636746341125932</v>
       </c>
       <c r="F39" t="n">
-        <v>0.971858556921941</v>
+        <v>0.813111313426421</v>
       </c>
       <c r="G39" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40">
@@ -1488,19 +1488,19 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>1.07933078734939</v>
+        <v>0.950282727041914</v>
       </c>
       <c r="E40" t="n">
-        <v>0.990388735207179</v>
+        <v>0.918452196148088</v>
       </c>
       <c r="F40" t="n">
-        <v>1.16297512876949</v>
+        <v>0.971858820261375</v>
       </c>
       <c r="G40" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1514,19 +1514,19 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>0.741230108106599</v>
+        <v>1.07933008213669</v>
       </c>
       <c r="E41" t="n">
-        <v>0.636742836394441</v>
+        <v>0.990388817312575</v>
       </c>
       <c r="F41" t="n">
-        <v>0.813109666387964</v>
+        <v>1.16297376398509</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H41" t="n">
-        <v>0.25</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="42">
@@ -1540,13 +1540,13 @@
         <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>0.636220593186648</v>
+        <v>0.636235963723338</v>
       </c>
       <c r="E42" t="n">
-        <v>0.540588529815189</v>
+        <v>0.540607954302525</v>
       </c>
       <c r="F42" t="n">
-        <v>0.835734630830867</v>
+        <v>0.835740441514527</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1566,19 +1566,19 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>0.884076494567404</v>
+        <v>0.644222881530445</v>
       </c>
       <c r="E43" t="n">
-        <v>0.83885143632168</v>
+        <v>0.560881223977742</v>
       </c>
       <c r="F43" t="n">
-        <v>0.922956506892727</v>
+        <v>0.7270495815729</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44">
@@ -1592,19 +1592,19 @@
         <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>0.836984980583288</v>
+        <v>0.88408080485659</v>
       </c>
       <c r="E44" t="n">
-        <v>0.815627436359226</v>
+        <v>0.838858457265194</v>
       </c>
       <c r="F44" t="n">
-        <v>0.875046672912632</v>
+        <v>0.922959937578153</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1618,19 +1618,19 @@
         <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>0.64420917206263</v>
+        <v>0.836991297934556</v>
       </c>
       <c r="E45" t="n">
-        <v>0.560860613114872</v>
+        <v>0.815634609639323</v>
       </c>
       <c r="F45" t="n">
-        <v>0.727038273348026</v>
+        <v>0.875052289632977</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="46">
@@ -1644,13 +1644,13 @@
         <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0.558005663890738</v>
+        <v>0.558012680032861</v>
       </c>
       <c r="E46" t="n">
-        <v>0.482384269484039</v>
+        <v>0.482392966902548</v>
       </c>
       <c r="F46" t="n">
-        <v>0.727592501817751</v>
+        <v>0.727596477321924</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1670,19 +1670,19 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>0.773757036132844</v>
+        <v>0.750153242692352</v>
       </c>
       <c r="E47" t="n">
-        <v>0.717522708583741</v>
+        <v>0.624824753345981</v>
       </c>
       <c r="F47" t="n">
-        <v>0.834377607674347</v>
+        <v>0.795827604390865</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
@@ -1696,19 +1696,19 @@
         <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>0.817686860185177</v>
+        <v>0.773761403849245</v>
       </c>
       <c r="E48" t="n">
-        <v>0.775410823691311</v>
+        <v>0.717528201114641</v>
       </c>
       <c r="F48" t="n">
-        <v>0.857116301149249</v>
+        <v>0.834380687845285</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1722,19 +1722,19 @@
         <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>0.750148688524656</v>
+        <v>0.81768953332293</v>
       </c>
       <c r="E49" t="n">
-        <v>0.624816648354812</v>
+        <v>0.775414172207505</v>
       </c>
       <c r="F49" t="n">
-        <v>0.79582364628216</v>
+        <v>0.857118422913812</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="50">
@@ -1748,13 +1748,13 @@
         <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>0.367256751125124</v>
+        <v>0.367307841816962</v>
       </c>
       <c r="E50" t="n">
-        <v>0.146715637687656</v>
+        <v>0.146748246537648</v>
       </c>
       <c r="F50" t="n">
-        <v>0.368557217874472</v>
+        <v>0.368583960340445</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1774,19 +1774,19 @@
         <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>0.411085409325527</v>
+        <v>0.620393845767317</v>
       </c>
       <c r="E51" t="n">
-        <v>0.308608451003405</v>
+        <v>0.471225904679697</v>
       </c>
       <c r="F51" t="n">
-        <v>0.519861522415684</v>
+        <v>0.679830199092852</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52">
@@ -1800,19 +1800,19 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>0.309105550017228</v>
+        <v>0.411107635276573</v>
       </c>
       <c r="E52" t="n">
-        <v>0.27300845225615</v>
+        <v>0.308629381435312</v>
       </c>
       <c r="F52" t="n">
-        <v>0.423497048086051</v>
+        <v>0.519887597180851</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1826,19 +1826,19 @@
         <v>13</v>
       </c>
       <c r="D53" t="n">
-        <v>0.620364475079788</v>
+        <v>0.309128562107293</v>
       </c>
       <c r="E53" t="n">
-        <v>0.47119311116746</v>
+        <v>0.273036436914526</v>
       </c>
       <c r="F53" t="n">
-        <v>0.679809897204183</v>
+        <v>0.423527877009197</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="54">
@@ -1852,13 +1852,13 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>0.266864413092238</v>
+        <v>0.26708591783333</v>
       </c>
       <c r="E54" t="n">
-        <v>0.140251648906477</v>
+        <v>0.14047571897653</v>
       </c>
       <c r="F54" t="n">
-        <v>0.359521320288014</v>
+        <v>0.359699357204085</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1878,19 +1878,19 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179845124680705</v>
+        <v>0.467743873633305</v>
       </c>
       <c r="E55" t="n">
-        <v>0.101767880751397</v>
+        <v>0.402684872386153</v>
       </c>
       <c r="F55" t="n">
-        <v>0.603946626741939</v>
+        <v>0.663442213115498</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56">
@@ -1904,19 +1904,19 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3892963260897</v>
+        <v>0.179965319659783</v>
       </c>
       <c r="E56" t="n">
-        <v>0.190056476668539</v>
+        <v>0.10203659643901</v>
       </c>
       <c r="F56" t="n">
-        <v>0.790795968939787</v>
+        <v>0.604014522249674</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1930,19 +1930,19 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>0.467406773201677</v>
+        <v>0.389345924543296</v>
       </c>
       <c r="E57" t="n">
-        <v>0.402388481617863</v>
+        <v>0.1901582727435</v>
       </c>
       <c r="F57" t="n">
-        <v>0.663220637866675</v>
+        <v>0.790833307128852</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H57" t="n">
-        <v>0.25</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="58">
@@ -1956,13 +1956,13 @@
         <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00465843232185745</v>
+        <v>0.00472282720173204</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00314290008126965</v>
+        <v>0.00322121948402694</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00616375298003104</v>
+        <v>0.00625517384023451</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1982,19 +1982,19 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0196998016870398</v>
+        <v>0.247211426408742</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00558074585620099</v>
+        <v>0.144060211503366</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0342810135342479</v>
+        <v>0.559677893093498</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="60">
@@ -2008,19 +2008,19 @@
         <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00164198050512736</v>
+        <v>0.0198506512791764</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000340310888267087</v>
+        <v>0.00563807648474941</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00646466751345895</v>
+        <v>0.034579374943404</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2034,19 +2034,19 @@
         <v>13</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246604755682366</v>
+        <v>0.00166413250555972</v>
       </c>
       <c r="E61" t="n">
-        <v>0.143657776244345</v>
+        <v>0.000343403561215234</v>
       </c>
       <c r="F61" t="n">
-        <v>0.55932806203139</v>
+        <v>0.00655386610996076</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="62">
@@ -2060,13 +2060,13 @@
         <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0995901720378593</v>
+        <v>0.0996946726933757</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0558737032079949</v>
+        <v>0.0559251154496181</v>
       </c>
       <c r="F62" t="n">
-        <v>0.10095504610673</v>
+        <v>0.101148117666781</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>0.224686475744633</v>
+        <v>0.162329738126221</v>
       </c>
       <c r="E63" t="n">
-        <v>0.174185902696948</v>
+        <v>0.11452697931651</v>
       </c>
       <c r="F63" t="n">
-        <v>0.265520321162575</v>
+        <v>0.450887338205224</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64">
@@ -2112,19 +2112,19 @@
         <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>0.263887751606695</v>
+        <v>0.224914721065374</v>
       </c>
       <c r="E64" t="n">
-        <v>0.141995162442667</v>
+        <v>0.174265892109012</v>
       </c>
       <c r="F64" t="n">
-        <v>0.284595619961906</v>
+        <v>0.265567373721575</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2138,19 +2138,19 @@
         <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162095630041969</v>
+        <v>0.264013377644849</v>
       </c>
       <c r="E65" t="n">
-        <v>0.114339946131113</v>
+        <v>0.142040552193472</v>
       </c>
       <c r="F65" t="n">
-        <v>0.450755119001038</v>
+        <v>0.284675990305377</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="66">
@@ -2164,13 +2164,13 @@
         <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>0.84535759896629</v>
+        <v>0.845360031984568</v>
       </c>
       <c r="E66" t="n">
-        <v>0.738214203359565</v>
+        <v>0.73821820011343</v>
       </c>
       <c r="F66" t="n">
-        <v>0.889825541033006</v>
+        <v>0.889826825372327</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -2190,19 +2190,19 @@
         <v>11</v>
       </c>
       <c r="D67" t="n">
-        <v>0.888052358370337</v>
+        <v>0.741708899859084</v>
       </c>
       <c r="E67" t="n">
-        <v>0.856450247727428</v>
+        <v>0.689319393995216</v>
       </c>
       <c r="F67" t="n">
-        <v>0.91996569164016</v>
+        <v>0.813351178991462</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="68">
@@ -2216,19 +2216,19 @@
         <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>0.90130337921466</v>
+        <v>0.888053892229362</v>
       </c>
       <c r="E68" t="n">
-        <v>0.884776784635352</v>
+        <v>0.856451825628356</v>
       </c>
       <c r="F68" t="n">
-        <v>0.951607675872494</v>
+        <v>0.919966831561924</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2242,19 +2242,19 @@
         <v>13</v>
       </c>
       <c r="D69" t="n">
-        <v>0.741706290789752</v>
+        <v>0.9013047071103</v>
       </c>
       <c r="E69" t="n">
-        <v>0.689315516203287</v>
+        <v>0.884778184102554</v>
       </c>
       <c r="F69" t="n">
-        <v>0.813349122559214</v>
+        <v>0.951608367696011</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.25</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="70">
@@ -2268,13 +2268,13 @@
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>0.836646397273138</v>
+        <v>0.836705335966994</v>
       </c>
       <c r="E70" t="n">
-        <v>0.812946817839972</v>
+        <v>0.813005991130928</v>
       </c>
       <c r="F70" t="n">
-        <v>1.44394990349203</v>
+        <v>1.44385195148492</v>
       </c>
       <c r="G70" t="n">
         <v>9</v>
@@ -2294,19 +2294,19 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>1.31061483342998</v>
+        <v>0.792996581499077</v>
       </c>
       <c r="E71" t="n">
-        <v>1.19510990557231</v>
+        <v>0.576483628772596</v>
       </c>
       <c r="F71" t="n">
-        <v>1.55875150405455</v>
+        <v>0.87429821323046</v>
       </c>
       <c r="G71" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="72">
@@ -2320,19 +2320,19 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>1.40769316034713</v>
+        <v>1.31055556173553</v>
       </c>
       <c r="E72" t="n">
-        <v>1.36812461220029</v>
+        <v>1.19504641612178</v>
       </c>
       <c r="F72" t="n">
-        <v>1.52038815221062</v>
+        <v>1.55864870179968</v>
       </c>
       <c r="G72" t="n">
-        <v>45</v>
+        <v>479</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2346,19 +2346,19 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>0.792949790359595</v>
+        <v>1.40759732404093</v>
       </c>
       <c r="E73" t="n">
-        <v>0.576336849574692</v>
+        <v>1.36806413206601</v>
       </c>
       <c r="F73" t="n">
-        <v>0.874266141175894</v>
+        <v>1.5203018295636</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H73" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="74">
@@ -2372,13 +2372,13 @@
         <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0046059027329148</v>
+        <v>0.00526042754938462</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00168046996745881</v>
+        <v>0.00183295994321542</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0109787231017234</v>
+        <v>0.0119648471342763</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2398,19 +2398,19 @@
         <v>11</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00201264563197166</v>
+        <v>0.0257750405245973</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000492699667224155</v>
+        <v>0.0171172034022852</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0163069563238091</v>
+        <v>0.069480385596463</v>
       </c>
       <c r="G75" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0003</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76">
@@ -2424,19 +2424,19 @@
         <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>0.495220724885767</v>
+        <v>0.00317433097034728</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0337874507977105</v>
-      </c>
-      <c r="F76" t="e">
-        <v>#NUM!</v>
+        <v>0.000767828858544202</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0167194440997225</v>
       </c>
       <c r="G76" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4053</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="77">
@@ -2450,19 +2450,19 @@
         <v>13</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0243780018279543</v>
+        <v>0.495369035694042</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0161718610735487</v>
+        <v>0.0343806474588614</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0680837220748211</v>
+        <v>4199</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H77" t="n">
-        <v>0.25</v>
+        <v>0.4258</v>
       </c>
     </row>
     <row r="78">
@@ -2476,13 +2476,13 @@
         <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>0.663540369766884</v>
+        <v>0.664468032291558</v>
       </c>
       <c r="E78" t="n">
-        <v>0.267038719457554</v>
+        <v>0.268395432976493</v>
       </c>
       <c r="F78" t="n">
-        <v>0.860785584613119</v>
+        <v>0.861105259987401</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -2502,19 +2502,19 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>0.777929218179771</v>
+        <v>0.574070173324934</v>
       </c>
       <c r="E79" t="n">
-        <v>0.695917897524904</v>
+        <v>0.458659493255917</v>
       </c>
       <c r="F79" t="n">
-        <v>0.896519179823848</v>
+        <v>0.682683064396237</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="80">
@@ -2528,19 +2528,19 @@
         <v>12</v>
       </c>
       <c r="D80" t="n">
-        <v>0.910784577508589</v>
+        <v>0.77843915502861</v>
       </c>
       <c r="E80" t="n">
-        <v>0.85916736524471</v>
+        <v>0.696753549942013</v>
       </c>
       <c r="F80" t="n">
-        <v>0.985529328302921</v>
+        <v>0.896816626362449</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2554,19 +2554,19 @@
         <v>13</v>
       </c>
       <c r="D81" t="n">
-        <v>0.573089867830659</v>
+        <v>0.910994048433636</v>
       </c>
       <c r="E81" t="n">
-        <v>0.456939594404354</v>
+        <v>0.859551660244776</v>
       </c>
       <c r="F81" t="n">
-        <v>0.681904404234765</v>
+        <v>0.985575039626098</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>0.25</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="82">
@@ -2580,13 +2580,13 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>0.397445706284858</v>
+        <v>0.398170538210627</v>
       </c>
       <c r="E82" t="n">
-        <v>0.274108056200677</v>
+        <v>0.274844245216923</v>
       </c>
       <c r="F82" t="n">
-        <v>0.44153233058378</v>
+        <v>0.442013520175326</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>0.700013103779485</v>
+        <v>0.57833348660364</v>
       </c>
       <c r="E83" t="n">
-        <v>0.491944914688534</v>
+        <v>0.523975756979412</v>
       </c>
       <c r="F83" t="n">
-        <v>0.855983046597885</v>
+        <v>0.58516325194881</v>
       </c>
       <c r="G83" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0015</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="84">
@@ -2632,19 +2632,19 @@
         <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>0.453260038878039</v>
+        <v>0.700424293818507</v>
       </c>
       <c r="E84" t="n">
-        <v>0.439898367933508</v>
+        <v>0.493042174711914</v>
       </c>
       <c r="F84" t="n">
-        <v>0.934685592434618</v>
+        <v>0.856259681233559</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0273</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="85">
@@ -2658,19 +2658,19 @@
         <v>13</v>
       </c>
       <c r="D85" t="n">
-        <v>0.577770838531986</v>
+        <v>0.453938143038358</v>
       </c>
       <c r="E85" t="n">
-        <v>0.523361913944157</v>
+        <v>0.440613696776045</v>
       </c>
       <c r="F85" t="n">
-        <v>0.584705470827221</v>
+        <v>0.934824359478293</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>0.25</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="86">
@@ -2683,20 +2683,20 @@
       <c r="C86" t="s">
         <v>10</v>
       </c>
-      <c r="D86" t="e">
-        <v>#NUM!</v>
+      <c r="D86" t="n">
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>0.38848449031695</v>
-      </c>
-      <c r="F86" t="e">
-        <v>#NUM!</v>
+        <v>0.458593794868587</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
       </c>
       <c r="G86" t="n">
         <v>12</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2718</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="87">
@@ -2710,19 +2710,19 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>0.445188497425523</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>0.161161100008988</v>
-      </c>
-      <c r="F87" t="e">
-        <v>#NUM!</v>
+        <v>2.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4</v>
       </c>
       <c r="G87" t="n">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3853</v>
+        <v>0.3458</v>
       </c>
     </row>
     <row r="88">
@@ -2736,19 +2736,19 @@
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>0.100134097874526</v>
+        <v>0.521851187170159</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0699973181628958</v>
+        <v>0.168119877674761</v>
       </c>
       <c r="F88" t="n">
-        <v>0.297307678255614</v>
+        <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0039</v>
+        <v>0.3876</v>
       </c>
     </row>
     <row r="89">
@@ -2761,20 +2761,20 @@
       <c r="C89" t="s">
         <v>13</v>
       </c>
-      <c r="D89" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E89" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F89" t="e">
-        <v>#NUM!</v>
+      <c r="D89" t="n">
+        <v>0.129199698739714</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0859918480173484</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.30377619955736</v>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3458</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="90">
@@ -2788,13 +2788,13 @@
         <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>0.513074435544334</v>
+        <v>0.51520040374264</v>
       </c>
       <c r="E90" t="n">
-        <v>0.431754915373047</v>
+        <v>0.434843637366986</v>
       </c>
       <c r="F90" t="n">
-        <v>0.579253746583108</v>
+        <v>0.580883109195556</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2814,19 +2814,19 @@
         <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2841365918339</v>
+        <v>0.525113531992925</v>
       </c>
       <c r="E91" t="n">
-        <v>0.234717916909282</v>
+        <v>0.509197794288227</v>
       </c>
       <c r="F91" t="n">
-        <v>0.384243262066603</v>
+        <v>0.867046573498835</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92">
@@ -2840,19 +2840,19 @@
         <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12376744122633</v>
+        <v>0.287883597898385</v>
       </c>
       <c r="E92" t="n">
-        <v>1.04871471085854</v>
+        <v>0.238485771053377</v>
       </c>
       <c r="F92" t="n">
-        <v>1.24797103604745</v>
+        <v>0.387489523316812</v>
       </c>
       <c r="G92" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2866,19 +2866,19 @@
         <v>13</v>
       </c>
       <c r="D93" t="n">
-        <v>0.522416915429929</v>
+        <v>1.12311483536071</v>
       </c>
       <c r="E93" t="n">
-        <v>0.506861574560998</v>
+        <v>1.04845143761817</v>
       </c>
       <c r="F93" t="n">
-        <v>0.866061489222103</v>
+        <v>1.24690484195947</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5</v>
+        <v>0.0977</v>
       </c>
     </row>
     <row r="94">
@@ -2892,13 +2892,13 @@
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>0.750693188689953</v>
+        <v>0.754380880687551</v>
       </c>
       <c r="E94" t="n">
-        <v>0.48511218333075</v>
+        <v>0.491958218273982</v>
       </c>
       <c r="F94" t="n">
-        <v>1.06554652089002</v>
+        <v>1.06465185134111</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -2918,19 +2918,19 @@
         <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>1.2113935344318</v>
+        <v>0.853475900657865</v>
       </c>
       <c r="E95" t="n">
-        <v>0.918703843931616</v>
+        <v>0.677293949117779</v>
       </c>
       <c r="F95" t="n">
-        <v>1.49924314081565</v>
+        <v>0.864441977778667</v>
       </c>
       <c r="G95" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.011</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="96">
@@ -2944,19 +2944,19 @@
         <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>1.93024288735336</v>
+        <v>1.20955402435774</v>
       </c>
       <c r="E96" t="n">
-        <v>1.59562787700427</v>
+        <v>0.919799838419959</v>
       </c>
       <c r="F96" t="n">
-        <v>2.25178114453045</v>
+        <v>1.49363233963875</v>
       </c>
       <c r="G96" t="n">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0039</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="97">
@@ -2970,19 +2970,19 @@
         <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>0.850436645450008</v>
+        <v>1.91973804814823</v>
       </c>
       <c r="E97" t="n">
-        <v>0.671536894607438</v>
+        <v>1.58774699059405</v>
       </c>
       <c r="F97" t="n">
-        <v>0.86199998615726</v>
+        <v>2.23880662637699</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H97" t="n">
-        <v>0.25</v>
+        <v>0.0039</v>
       </c>
     </row>
   </sheetData>
